--- a/001 Cronograma/Cronograma Actividades V4.xlsx
+++ b/001 Cronograma/Cronograma Actividades V4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7. Septimo Semestre\1. Practicas\3. Perfil profesional\Practicas-PP\001 Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62FA7F2-3AB8-456E-AFDE-F795C96EFB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE3B819-234B-4B4E-8A2A-DCD98F3778FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STEVEN - Act. diarias " sheetId="5" r:id="rId1"/>
@@ -861,10 +861,73 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -873,7 +936,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -888,70 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K136" sqref="K136"/>
+      <selection activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1338,16 +1338,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="62">
         <v>45565</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="62">
         <v>45569</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="65">
         <v>45565</v>
       </c>
       <c r="E2" s="7">
@@ -1363,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="45">
+      <c r="J2" s="66">
         <v>6</v>
       </c>
       <c r="L2" s="1">
@@ -1372,10 +1372,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="40"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1389,13 +1389,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="7">
         <v>0.5</v>
       </c>
@@ -1409,12 +1409,12 @@
         <v>14</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="45"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1424,10 +1424,10 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="40">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="65">
         <v>45566</v>
       </c>
       <c r="E6" s="7">
@@ -1443,15 +1443,15 @@
         <v>15</v>
       </c>
       <c r="I6" s="17"/>
-      <c r="J6" s="45">
+      <c r="J6" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="7">
         <v>0.5</v>
       </c>
@@ -1465,12 +1465,12 @@
         <v>16</v>
       </c>
       <c r="I7" s="17"/>
-      <c r="J7" s="45"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1480,10 +1480,10 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="40">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="65">
         <v>45567</v>
       </c>
       <c r="E9" s="7">
@@ -1499,15 +1499,15 @@
         <v>17</v>
       </c>
       <c r="I9" s="17"/>
-      <c r="J9" s="45">
+      <c r="J9" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1521,12 +1521,12 @@
         <v>18</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="45"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1536,10 +1536,10 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="40">
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="65">
         <v>45568</v>
       </c>
       <c r="E12" s="7">
@@ -1555,15 +1555,15 @@
         <v>19</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="45">
+      <c r="J12" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="40"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1577,12 +1577,12 @@
         <v>20</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="45"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1592,10 +1592,10 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="40">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="65">
         <v>45569</v>
       </c>
       <c r="E15" s="7">
@@ -1611,15 +1611,15 @@
         <v>21</v>
       </c>
       <c r="I15" s="17"/>
-      <c r="J15" s="47">
+      <c r="J15" s="68">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="46"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="17"/>
-      <c r="J16" s="48"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -1648,16 +1648,16 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="62">
         <v>45572</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="62">
         <v>45575</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="65">
         <v>45572</v>
       </c>
       <c r="E18" s="7">
@@ -1673,15 +1673,15 @@
         <v>24</v>
       </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="45">
+      <c r="J18" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="40"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="7">
         <v>0.375</v>
       </c>
@@ -1695,13 +1695,13 @@
         <v>25</v>
       </c>
       <c r="I19" s="17"/>
-      <c r="J19" s="45"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="40"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1715,13 +1715,13 @@
         <v>26</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="45"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="40"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="7">
         <v>0.5</v>
       </c>
@@ -1737,12 +1737,12 @@
       <c r="I21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="45"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -1752,10 +1752,10 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="40">
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="65">
         <v>45573</v>
       </c>
       <c r="E23" s="7">
@@ -1771,15 +1771,15 @@
         <v>29</v>
       </c>
       <c r="I23" s="17"/>
-      <c r="J23" s="45">
+      <c r="J23" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="40"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1793,13 +1793,13 @@
         <v>30</v>
       </c>
       <c r="I24" s="17"/>
-      <c r="J24" s="45"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="40"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1813,12 +1813,12 @@
         <v>31</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="45"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -1828,10 +1828,10 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="40">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65">
         <v>45574</v>
       </c>
       <c r="E27" s="16">
@@ -1847,15 +1847,15 @@
         <v>32</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="45">
+      <c r="J27" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="40"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="7">
         <v>0.375</v>
       </c>
@@ -1869,13 +1869,13 @@
         <v>33</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="45"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="40"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="65"/>
       <c r="E29" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1889,13 +1889,13 @@
         <v>34</v>
       </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="45"/>
+      <c r="J29" s="66"/>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="40"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="7">
         <v>0.5</v>
       </c>
@@ -1909,12 +1909,12 @@
         <v>35</v>
       </c>
       <c r="I30" s="17"/>
-      <c r="J30" s="45"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1924,10 +1924,10 @@
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="40">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="65">
         <v>45575</v>
       </c>
       <c r="E32" s="7">
@@ -1943,15 +1943,15 @@
         <v>36</v>
       </c>
       <c r="I32" s="17"/>
-      <c r="J32" s="45">
+      <c r="J32" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="40"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1965,13 +1965,13 @@
         <v>37</v>
       </c>
       <c r="I33" s="17"/>
-      <c r="J33" s="45"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="40"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="7">
         <v>0.5</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>38</v>
       </c>
       <c r="I34" s="17"/>
-      <c r="J34" s="45"/>
+      <c r="J34" s="66"/>
     </row>
     <row r="35" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
@@ -2000,16 +2000,16 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="50">
+      <c r="B36" s="62">
         <v>45579</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="62">
         <v>45583</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="65">
         <v>45579</v>
       </c>
       <c r="E36" s="7">
@@ -2025,15 +2025,15 @@
         <v>40</v>
       </c>
       <c r="I36" s="17"/>
-      <c r="J36" s="45">
+      <c r="J36" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="40"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -2047,13 +2047,13 @@
         <v>41</v>
       </c>
       <c r="I37" s="17"/>
-      <c r="J37" s="45"/>
+      <c r="J37" s="66"/>
     </row>
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="40"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="7">
         <v>0.625</v>
       </c>
@@ -2067,12 +2067,12 @@
         <v>42</v>
       </c>
       <c r="I38" s="17"/>
-      <c r="J38" s="45"/>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -2082,10 +2082,10 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="40">
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="65">
         <v>45580</v>
       </c>
       <c r="E40" s="7">
@@ -2101,15 +2101,15 @@
         <v>43</v>
       </c>
       <c r="I40" s="17"/>
-      <c r="J40" s="45">
+      <c r="J40" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="40"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -2123,13 +2123,13 @@
         <v>44</v>
       </c>
       <c r="I41" s="17"/>
-      <c r="J41" s="45"/>
+      <c r="J41" s="66"/>
     </row>
     <row r="42" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="40"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="7">
         <v>0.625</v>
       </c>
@@ -2143,12 +2143,12 @@
         <v>45</v>
       </c>
       <c r="I42" s="17"/>
-      <c r="J42" s="45"/>
+      <c r="J42" s="66"/>
     </row>
     <row r="43" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -2158,10 +2158,10 @@
       <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="40">
+      <c r="A44" s="61"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="65">
         <v>45581</v>
       </c>
       <c r="E44" s="7">
@@ -2177,15 +2177,15 @@
         <v>46</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="45">
+      <c r="J44" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="40"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="7">
         <v>0.625</v>
       </c>
@@ -2199,12 +2199,12 @@
         <v>47</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="45"/>
+      <c r="J45" s="66"/>
     </row>
     <row r="46" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -2214,10 +2214,10 @@
       <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="40">
+      <c r="A47" s="61"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="65">
         <v>45582</v>
       </c>
       <c r="E47" s="7">
@@ -2233,15 +2233,15 @@
         <v>48</v>
       </c>
       <c r="I47" s="17"/>
-      <c r="J47" s="45">
+      <c r="J47" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="40"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -2257,12 +2257,12 @@
       <c r="I48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J48" s="45"/>
+      <c r="J48" s="66"/>
     </row>
     <row r="49" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -2272,10 +2272,10 @@
       <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="40">
+      <c r="A50" s="61"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="65">
         <v>45583</v>
       </c>
       <c r="E50" s="7">
@@ -2291,15 +2291,15 @@
         <v>51</v>
       </c>
       <c r="I50" s="17"/>
-      <c r="J50" s="45">
+      <c r="J50" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="49"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="40"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="7">
         <v>0.625</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>52</v>
       </c>
       <c r="I51" s="17"/>
-      <c r="J51" s="45"/>
+      <c r="J51" s="66"/>
     </row>
     <row r="52" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
@@ -2328,16 +2328,16 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="50">
+      <c r="B53" s="62">
         <v>45586</v>
       </c>
-      <c r="C53" s="50">
+      <c r="C53" s="62">
         <v>45590</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="65">
         <v>45586</v>
       </c>
       <c r="E53" s="7">
@@ -2353,15 +2353,15 @@
         <v>54</v>
       </c>
       <c r="I53" s="17"/>
-      <c r="J53" s="45">
+      <c r="J53" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="40"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="65"/>
       <c r="E54" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2375,12 +2375,12 @@
         <v>55</v>
       </c>
       <c r="I54" s="17"/>
-      <c r="J54" s="45"/>
+      <c r="J54" s="66"/>
     </row>
     <row r="55" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="10"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -2390,10 +2390,10 @@
       <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="49"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="40">
+      <c r="A56" s="61"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="65">
         <v>45587</v>
       </c>
       <c r="E56" s="7">
@@ -2409,15 +2409,15 @@
         <v>56</v>
       </c>
       <c r="I56" s="17"/>
-      <c r="J56" s="45">
+      <c r="J56" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="49"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="40"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -2431,13 +2431,13 @@
         <v>57</v>
       </c>
       <c r="I57" s="17"/>
-      <c r="J57" s="45"/>
+      <c r="J57" s="66"/>
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="49"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="40"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2451,12 +2451,12 @@
         <v>58</v>
       </c>
       <c r="I58" s="17"/>
-      <c r="J58" s="45"/>
+      <c r="J58" s="66"/>
     </row>
     <row r="59" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="10"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
@@ -2466,10 +2466,10 @@
       <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="40">
+      <c r="A60" s="61"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="65">
         <v>45588</v>
       </c>
       <c r="E60" s="7">
@@ -2485,15 +2485,15 @@
         <v>59</v>
       </c>
       <c r="I60" s="17"/>
-      <c r="J60" s="45">
+      <c r="J60" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="40"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -2509,13 +2509,13 @@
       <c r="I61" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J61" s="45"/>
+      <c r="J61" s="66"/>
     </row>
     <row r="62" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="40"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="65"/>
       <c r="E62" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2529,12 +2529,12 @@
         <v>62</v>
       </c>
       <c r="I62" s="17"/>
-      <c r="J62" s="45"/>
+      <c r="J62" s="66"/>
     </row>
     <row r="63" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="10"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -2544,10 +2544,10 @@
       <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="49"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="40">
+      <c r="A64" s="61"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="65">
         <v>45589</v>
       </c>
       <c r="E64" s="7">
@@ -2563,15 +2563,15 @@
         <v>63</v>
       </c>
       <c r="I64" s="17"/>
-      <c r="J64" s="45">
+      <c r="J64" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="40"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="65"/>
       <c r="E65" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2585,12 +2585,12 @@
         <v>64</v>
       </c>
       <c r="I65" s="17"/>
-      <c r="J65" s="45"/>
+      <c r="J65" s="66"/>
     </row>
     <row r="66" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="10"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
@@ -2600,10 +2600,10 @@
       <c r="J66" s="14"/>
     </row>
     <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="49"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="40">
+      <c r="A67" s="61"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="65">
         <v>45590</v>
       </c>
       <c r="E67" s="7">
@@ -2619,15 +2619,15 @@
         <v>65</v>
       </c>
       <c r="I67" s="17"/>
-      <c r="J67" s="45">
+      <c r="J67" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="49"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="40"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="65"/>
       <c r="E68" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>66</v>
       </c>
       <c r="I68" s="17"/>
-      <c r="J68" s="45"/>
+      <c r="J68" s="66"/>
     </row>
     <row r="69" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
@@ -2656,16 +2656,16 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="50">
+      <c r="B70" s="62">
         <v>45593</v>
       </c>
-      <c r="C70" s="50">
+      <c r="C70" s="62">
         <v>45596</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="65">
         <v>45593</v>
       </c>
       <c r="E70" s="7">
@@ -2681,15 +2681,15 @@
         <v>67</v>
       </c>
       <c r="I70" s="17"/>
-      <c r="J70" s="45">
+      <c r="J70" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="49"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="40"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="65"/>
       <c r="E71" s="7">
         <v>0.375</v>
       </c>
@@ -2703,12 +2703,12 @@
         <v>68</v>
       </c>
       <c r="I71" s="17"/>
-      <c r="J71" s="45"/>
+      <c r="J71" s="66"/>
     </row>
     <row r="72" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="49"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="10"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -2718,10 +2718,10 @@
       <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="49"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="40">
+      <c r="A73" s="61"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="65">
         <v>45594</v>
       </c>
       <c r="E73" s="7">
@@ -2737,15 +2737,15 @@
         <v>69</v>
       </c>
       <c r="I73" s="17"/>
-      <c r="J73" s="45">
+      <c r="J73" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="49"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="40"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="65"/>
       <c r="E74" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -2759,13 +2759,13 @@
         <v>66</v>
       </c>
       <c r="I74" s="17"/>
-      <c r="J74" s="45"/>
+      <c r="J74" s="66"/>
     </row>
     <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="49"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="40"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="65"/>
       <c r="E75" s="7">
         <v>0.75</v>
       </c>
@@ -2779,12 +2779,12 @@
         <v>70</v>
       </c>
       <c r="I75" s="17"/>
-      <c r="J75" s="45"/>
+      <c r="J75" s="66"/>
     </row>
     <row r="76" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="49"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="10"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
@@ -2794,9 +2794,9 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="49"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="21">
         <v>45595</v>
       </c>
@@ -2818,9 +2818,9 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="49"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="10"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
@@ -2830,9 +2830,9 @@
       <c r="J78" s="14"/>
     </row>
     <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="21">
         <v>45596</v>
       </c>
@@ -2868,13 +2868,13 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="43">
+      <c r="B81" s="64">
         <v>45601</v>
       </c>
-      <c r="C81" s="43">
+      <c r="C81" s="64">
         <v>45604</v>
       </c>
       <c r="D81" s="21">
@@ -2898,9 +2898,9 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="42"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
       <c r="D82" s="10"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -2910,9 +2910,9 @@
       <c r="J82" s="14"/>
     </row>
     <row r="83" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="42"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
       <c r="D83" s="21">
         <v>45602</v>
       </c>
@@ -2934,9 +2934,9 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
+      <c r="A84" s="63"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
       <c r="D84" s="10"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -2946,9 +2946,9 @@
       <c r="J84" s="14"/>
     </row>
     <row r="85" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="42"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
       <c r="D85" s="21">
         <v>45603</v>
       </c>
@@ -2970,9 +2970,9 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="10"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -2982,10 +2982,10 @@
       <c r="J86" s="23"/>
     </row>
     <row r="87" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="42"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="40">
+      <c r="A87" s="63"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="65">
         <v>45604</v>
       </c>
       <c r="E87" s="7">
@@ -3003,15 +3003,15 @@
       <c r="I87" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J87" s="41">
+      <c r="J87" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="42"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="40"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="65"/>
       <c r="E88" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>79</v>
       </c>
       <c r="I88" s="17"/>
-      <c r="J88" s="41"/>
+      <c r="J88" s="43"/>
     </row>
     <row r="89" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
@@ -3040,13 +3040,13 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="42" t="s">
+      <c r="A90" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="B90" s="43">
+      <c r="B90" s="64">
         <v>45607</v>
       </c>
-      <c r="C90" s="43">
+      <c r="C90" s="64">
         <v>45611</v>
       </c>
       <c r="D90" s="24">
@@ -3072,9 +3072,9 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="42"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
       <c r="D91" s="10"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -3084,9 +3084,9 @@
       <c r="J91" s="23"/>
     </row>
     <row r="92" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="44"/>
+      <c r="A92" s="63"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="70"/>
       <c r="D92" s="36">
         <v>45608</v>
       </c>
@@ -3110,9 +3110,9 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="42"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="44"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="70"/>
       <c r="D93" s="37"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
@@ -3122,9 +3122,9 @@
       <c r="J93" s="23"/>
     </row>
     <row r="94" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="42"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="44"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="70"/>
       <c r="D94" s="36">
         <v>45609</v>
       </c>
@@ -3148,9 +3148,9 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="42"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
+      <c r="A95" s="63"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="10"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
@@ -3160,9 +3160,9 @@
       <c r="J95" s="23"/>
     </row>
     <row r="96" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
+      <c r="A96" s="63"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
       <c r="D96" s="21">
         <v>45610</v>
       </c>
@@ -3186,9 +3186,9 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
+      <c r="A97" s="63"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
       <c r="D97" s="10"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
@@ -3198,9 +3198,9 @@
       <c r="J97" s="23"/>
     </row>
     <row r="98" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="42"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
+      <c r="A98" s="63"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
       <c r="D98" s="35">
         <v>45611</v>
       </c>
@@ -3236,13 +3236,13 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="51" t="s">
+      <c r="A100" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="54">
+      <c r="B100" s="47">
         <v>45614</v>
       </c>
-      <c r="C100" s="57">
+      <c r="C100" s="50">
         <v>45618</v>
       </c>
       <c r="D100" s="38">
@@ -3268,9 +3268,9 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="52"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="58"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="51"/>
       <c r="D101" s="37"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -3280,9 +3280,9 @@
       <c r="J101" s="23"/>
     </row>
     <row r="102" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="52"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="58"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="51"/>
       <c r="D102" s="36">
         <v>45615</v>
       </c>
@@ -3306,9 +3306,9 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="52"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="58"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="51"/>
       <c r="D103" s="37"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
@@ -3318,9 +3318,9 @@
       <c r="J103" s="23"/>
     </row>
     <row r="104" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="52"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="58"/>
+      <c r="A104" s="45"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="51"/>
       <c r="D104" s="36">
         <v>45616</v>
       </c>
@@ -3344,9 +3344,9 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="52"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="58"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="51"/>
       <c r="D105" s="37"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
@@ -3356,9 +3356,9 @@
       <c r="J105" s="23"/>
     </row>
     <row r="106" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="52"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="58"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="51"/>
       <c r="D106" s="36">
         <v>45617</v>
       </c>
@@ -3382,9 +3382,9 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="52"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="58"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="51"/>
       <c r="D107" s="37"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
@@ -3394,9 +3394,9 @@
       <c r="J107" s="23"/>
     </row>
     <row r="108" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="53"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="59"/>
+      <c r="A108" s="46"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="52"/>
       <c r="D108" s="39">
         <v>45618</v>
       </c>
@@ -3432,13 +3432,13 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="51" t="s">
+      <c r="A110" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B110" s="54">
+      <c r="B110" s="47">
         <v>45621</v>
       </c>
-      <c r="C110" s="57">
+      <c r="C110" s="50">
         <v>45625</v>
       </c>
       <c r="D110" s="38">
@@ -3464,9 +3464,9 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="52"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="58"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="51"/>
       <c r="D111" s="37"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
@@ -3476,9 +3476,9 @@
       <c r="J111" s="23"/>
     </row>
     <row r="112" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="52"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="58"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="36">
         <v>45622</v>
       </c>
@@ -3502,9 +3502,9 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="52"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="58"/>
+      <c r="A113" s="45"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="51"/>
       <c r="D113" s="37"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
@@ -3514,9 +3514,9 @@
       <c r="J113" s="23"/>
     </row>
     <row r="114" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="52"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="58"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="36">
         <v>45623</v>
       </c>
@@ -3540,9 +3540,9 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="52"/>
-      <c r="B115" s="55"/>
-      <c r="C115" s="58"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="51"/>
       <c r="D115" s="37"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
@@ -3552,9 +3552,9 @@
       <c r="J115" s="23"/>
     </row>
     <row r="116" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="52"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="58"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="51"/>
       <c r="D116" s="36">
         <v>45624</v>
       </c>
@@ -3576,9 +3576,9 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="52"/>
-      <c r="B117" s="55"/>
-      <c r="C117" s="58"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="51"/>
       <c r="D117" s="37"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
@@ -3588,9 +3588,9 @@
       <c r="J117" s="23"/>
     </row>
     <row r="118" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="53"/>
-      <c r="B118" s="56"/>
-      <c r="C118" s="59"/>
+      <c r="A118" s="46"/>
+      <c r="B118" s="49"/>
+      <c r="C118" s="52"/>
       <c r="D118" s="39">
         <v>45625</v>
       </c>
@@ -3626,13 +3626,13 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="51" t="s">
+      <c r="A120" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B120" s="54">
+      <c r="B120" s="47">
         <v>45628</v>
       </c>
-      <c r="C120" s="57">
+      <c r="C120" s="50">
         <v>45631</v>
       </c>
       <c r="D120" s="38">
@@ -3658,9 +3658,9 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="52"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="58"/>
+      <c r="A121" s="45"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="51"/>
       <c r="D121" s="37"/>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
@@ -3670,9 +3670,9 @@
       <c r="J121" s="23"/>
     </row>
     <row r="122" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="52"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="58"/>
+      <c r="A122" s="45"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="36">
         <v>45629</v>
       </c>
@@ -3696,9 +3696,9 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="52"/>
-      <c r="B123" s="55"/>
-      <c r="C123" s="58"/>
+      <c r="A123" s="45"/>
+      <c r="B123" s="48"/>
+      <c r="C123" s="51"/>
       <c r="D123" s="37"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
@@ -3708,9 +3708,9 @@
       <c r="J123" s="23"/>
     </row>
     <row r="124" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="52"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="58"/>
+      <c r="A124" s="45"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="51"/>
       <c r="D124" s="36">
         <v>45630</v>
       </c>
@@ -3734,9 +3734,9 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="52"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="58"/>
+      <c r="A125" s="45"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="51"/>
       <c r="D125" s="37"/>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
@@ -3746,9 +3746,9 @@
       <c r="J125" s="23"/>
     </row>
     <row r="126" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="52"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="58"/>
+      <c r="A126" s="45"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="51"/>
       <c r="D126" s="36">
         <v>45631</v>
       </c>
@@ -3784,16 +3784,16 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="51" t="s">
+      <c r="A128" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B128" s="54">
+      <c r="B128" s="47">
         <v>45642</v>
       </c>
-      <c r="C128" s="57">
+      <c r="C128" s="50">
         <v>45646</v>
       </c>
-      <c r="D128" s="60">
+      <c r="D128" s="40">
         <v>45642</v>
       </c>
       <c r="E128" s="25">
@@ -3811,15 +3811,15 @@
       <c r="I128" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="J128" s="62">
+      <c r="J128" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="52"/>
-      <c r="B129" s="55"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="61"/>
+      <c r="A129" s="45"/>
+      <c r="B129" s="48"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="41"/>
       <c r="E129" s="7">
         <v>0.33333333333333331</v>
       </c>
@@ -3835,13 +3835,13 @@
       <c r="I129" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="J129" s="41"/>
+      <c r="J129" s="43"/>
     </row>
     <row r="130" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="52"/>
-      <c r="B130" s="55"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="61"/>
+      <c r="A130" s="45"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="41"/>
       <c r="E130" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -3857,12 +3857,12 @@
       <c r="I130" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J130" s="41"/>
+      <c r="J130" s="43"/>
     </row>
     <row r="131" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="52"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="58"/>
+      <c r="A131" s="45"/>
+      <c r="B131" s="48"/>
+      <c r="C131" s="51"/>
       <c r="D131" s="37"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
@@ -3872,9 +3872,9 @@
       <c r="J131" s="23"/>
     </row>
     <row r="132" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="52"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="58"/>
+      <c r="A132" s="45"/>
+      <c r="B132" s="48"/>
+      <c r="C132" s="51"/>
       <c r="D132" s="36">
         <v>45643</v>
       </c>
@@ -3898,9 +3898,9 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="52"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="58"/>
+      <c r="A133" s="45"/>
+      <c r="B133" s="48"/>
+      <c r="C133" s="51"/>
       <c r="D133" s="37"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
@@ -3910,9 +3910,9 @@
       <c r="J133" s="23"/>
     </row>
     <row r="134" spans="1:10" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="52"/>
-      <c r="B134" s="55"/>
-      <c r="C134" s="58"/>
+      <c r="A134" s="45"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="51"/>
       <c r="D134" s="36">
         <v>45645</v>
       </c>
@@ -3936,9 +3936,9 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="52"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="58"/>
+      <c r="A135" s="45"/>
+      <c r="B135" s="48"/>
+      <c r="C135" s="51"/>
       <c r="D135" s="37"/>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
@@ -3948,44 +3948,44 @@
       <c r="J135" s="23"/>
     </row>
     <row r="136" spans="1:10" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="52"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="61">
+      <c r="A136" s="45"/>
+      <c r="B136" s="48"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="41">
         <v>45646</v>
       </c>
-      <c r="E136" s="67">
+      <c r="E136" s="57">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F136" s="67">
+      <c r="F136" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G136" s="65">
+      <c r="G136" s="55">
         <v>6</v>
       </c>
-      <c r="H136" s="63" t="s">
+      <c r="H136" s="53" t="s">
         <v>135</v>
       </c>
       <c r="I136" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="J136" s="41">
+      <c r="J136" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="53"/>
-      <c r="B137" s="56"/>
-      <c r="C137" s="59"/>
-      <c r="D137" s="69"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="66"/>
-      <c r="H137" s="64"/>
+      <c r="A137" s="46"/>
+      <c r="B137" s="49"/>
+      <c r="C137" s="52"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="58"/>
+      <c r="F137" s="58"/>
+      <c r="G137" s="56"/>
+      <c r="H137" s="54"/>
       <c r="I137" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="J137" s="70"/>
+      <c r="J137" s="60"/>
     </row>
     <row r="138" spans="1:10" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
@@ -4000,13 +4000,13 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="51" t="s">
+      <c r="A139" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B139" s="54">
+      <c r="B139" s="47">
         <v>45619</v>
       </c>
-      <c r="C139" s="57">
+      <c r="C139" s="50">
         <v>45620</v>
       </c>
       <c r="D139" s="38"/>
@@ -4018,9 +4018,9 @@
       <c r="J139" s="29"/>
     </row>
     <row r="140" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="52"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="58"/>
+      <c r="A140" s="45"/>
+      <c r="B140" s="48"/>
+      <c r="C140" s="51"/>
       <c r="D140" s="37"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
@@ -4030,9 +4030,9 @@
       <c r="J140" s="23"/>
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="52"/>
-      <c r="B141" s="55"/>
-      <c r="C141" s="58"/>
+      <c r="A141" s="45"/>
+      <c r="B141" s="48"/>
+      <c r="C141" s="51"/>
       <c r="D141" s="36"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
@@ -4042,9 +4042,9 @@
       <c r="J141" s="22"/>
     </row>
     <row r="142" spans="1:10" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="52"/>
-      <c r="B142" s="55"/>
-      <c r="C142" s="58"/>
+      <c r="A142" s="45"/>
+      <c r="B142" s="48"/>
+      <c r="C142" s="51"/>
       <c r="D142" s="37"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
@@ -4054,9 +4054,9 @@
       <c r="J142" s="23"/>
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="52"/>
-      <c r="B143" s="55"/>
-      <c r="C143" s="58"/>
+      <c r="A143" s="45"/>
+      <c r="B143" s="48"/>
+      <c r="C143" s="51"/>
       <c r="D143" s="36"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
@@ -4066,9 +4066,9 @@
       <c r="J143" s="22"/>
     </row>
     <row r="144" spans="1:10" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="52"/>
-      <c r="B144" s="55"/>
-      <c r="C144" s="58"/>
+      <c r="A144" s="45"/>
+      <c r="B144" s="48"/>
+      <c r="C144" s="51"/>
       <c r="D144" s="37"/>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
@@ -4078,9 +4078,9 @@
       <c r="J144" s="23"/>
     </row>
     <row r="145" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="52"/>
-      <c r="B145" s="55"/>
-      <c r="C145" s="58"/>
+      <c r="A145" s="45"/>
+      <c r="B145" s="48"/>
+      <c r="C145" s="51"/>
       <c r="D145" s="36"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
@@ -4090,9 +4090,9 @@
       <c r="J145" s="22"/>
     </row>
     <row r="146" spans="1:10" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="52"/>
-      <c r="B146" s="55"/>
-      <c r="C146" s="58"/>
+      <c r="A146" s="45"/>
+      <c r="B146" s="48"/>
+      <c r="C146" s="51"/>
       <c r="D146" s="37"/>
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
@@ -4102,9 +4102,9 @@
       <c r="J146" s="23"/>
     </row>
     <row r="147" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="53"/>
-      <c r="B147" s="56"/>
-      <c r="C147" s="59"/>
+      <c r="A147" s="46"/>
+      <c r="B147" s="49"/>
+      <c r="C147" s="52"/>
       <c r="D147" s="39"/>
       <c r="E147" s="30"/>
       <c r="F147" s="30"/>
@@ -4115,68 +4115,16 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="J128:J130"/>
-    <mergeCell ref="A139:A147"/>
-    <mergeCell ref="B139:B147"/>
-    <mergeCell ref="C139:C147"/>
-    <mergeCell ref="A128:A137"/>
-    <mergeCell ref="B128:B137"/>
-    <mergeCell ref="C128:C137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="A110:A118"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="C110:C118"/>
-    <mergeCell ref="A120:A126"/>
-    <mergeCell ref="B120:B126"/>
-    <mergeCell ref="C120:C126"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="C70:C79"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="A53:A68"/>
-    <mergeCell ref="B53:B68"/>
-    <mergeCell ref="C53:C68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="A36:A51"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="C36:C51"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A90:A98"/>
+    <mergeCell ref="B90:B98"/>
+    <mergeCell ref="C90:C98"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="A18:A34"/>
@@ -4193,16 +4141,68 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A90:A98"/>
-    <mergeCell ref="B90:B98"/>
-    <mergeCell ref="C90:C98"/>
+    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="C36:C51"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="A53:A68"/>
+    <mergeCell ref="B53:B68"/>
+    <mergeCell ref="C53:C68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="C70:C79"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="C110:C118"/>
+    <mergeCell ref="A120:A126"/>
+    <mergeCell ref="B120:B126"/>
+    <mergeCell ref="C120:C126"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="J128:J130"/>
+    <mergeCell ref="A139:A147"/>
+    <mergeCell ref="B139:B147"/>
+    <mergeCell ref="C139:C147"/>
+    <mergeCell ref="A128:A137"/>
+    <mergeCell ref="B128:B137"/>
+    <mergeCell ref="C128:C137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="J136:J137"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
